--- a/SDGupdater/inst/testdata/Exchange-rates.xlsx
+++ b/SDGupdater/inst/testdata/Exchange-rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding_repos\sdg_data_updates\SDGupdater\inst\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6975A4-2DAD-4EDA-B5FD-F2458F8C22DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A33120-461B-4FBA-A8BB-A38B619F0B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1530" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exchange-rates" sheetId="1" r:id="rId1"/>
@@ -510,8 +510,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -870,22 +871,22 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2017</v>
       </c>
@@ -902,7 +903,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -922,7 +923,7 @@
         <v>8.5769000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -942,27 +943,27 @@
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.77659999999999996</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.74970000000000003</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.78359999999999996</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.77969999999999995</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -982,17 +983,18 @@
         <v>0.84560000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>